--- a/documents/02外部設計/01機能一覧_ユーザーライク.xlsx
+++ b/documents/02外部設計/01機能一覧_ユーザーライク.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seplus2016-my.sharepoint.com/personal/dohi_seplus2016_onmicrosoft_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{DBA40E2F-9CC7-484C-97D1-B6452D16C5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B927F7B-22AF-439F-B00C-2ABEC5C50721}"/>
+  <xr:revisionPtr revIDLastSave="153" documentId="8_{DBA40E2F-9CC7-484C-97D1-B6452D16C5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EDDD3B5-4DF9-45A9-BF09-C02A9F2048D4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="95">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -171,102 +171,108 @@
     <t>ユーザー管理</t>
   </si>
   <si>
+    <t>受講者ページ</t>
+  </si>
+  <si>
     <t>登録</t>
   </si>
   <si>
     <t>UM001</t>
   </si>
   <si>
-    <t>受講者もしくは講師のアカウントを登録する</t>
+    <t>受講者のアカウントを登録する</t>
   </si>
   <si>
     <t>JAVA・SQL</t>
   </si>
   <si>
+    <t>講師ページ</t>
+  </si>
+  <si>
+    <t>UM002</t>
+  </si>
+  <si>
+    <t>講師のアカウントを登録する</t>
+  </si>
+  <si>
+    <t>ログイン</t>
+  </si>
+  <si>
+    <t>UM003</t>
+  </si>
+  <si>
+    <t>登録を完了した受講者がログインできる</t>
+  </si>
+  <si>
+    <t>UM004</t>
+  </si>
+  <si>
+    <t>登録を完了した講師がログインできる</t>
+  </si>
+  <si>
+    <t>ログアウト</t>
+  </si>
+  <si>
+    <t>UM005</t>
+  </si>
+  <si>
+    <t>登録を完了した受講者がログアウトできる</t>
+  </si>
+  <si>
+    <t>JAVA</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>UM006</t>
+  </si>
+  <si>
+    <t>登録を完了した講師がログアウトできる</t>
+  </si>
+  <si>
+    <t>受講者管理</t>
+  </si>
+  <si>
+    <t>UM007</t>
+  </si>
+  <si>
+    <t>講師が受講者のプロフィール情報と理解度を取得し表示する</t>
+  </si>
+  <si>
+    <t>JAVA・SQL・javascript</t>
+  </si>
+  <si>
     <t>検索</t>
   </si>
   <si>
-    <t>UM002</t>
+    <t>UM008</t>
   </si>
   <si>
     <t>登録されている受講者から検索する</t>
   </si>
   <si>
-    <t> </t>
+    <t>削除</t>
+  </si>
+  <si>
+    <t>UM009</t>
+  </si>
+  <si>
+    <t>登録されているアカウントを削除する</t>
+  </si>
+  <si>
+    <t>プロフィール機能</t>
   </si>
   <si>
     <t>更新</t>
   </si>
   <si>
-    <t>UM003</t>
-  </si>
-  <si>
-    <t>登録されているアカウントを更新する</t>
-  </si>
-  <si>
-    <t>削除</t>
-  </si>
-  <si>
-    <t>UM004</t>
-  </si>
-  <si>
-    <t>登録されているアカウントを削除する</t>
-  </si>
-  <si>
-    <t>ログイン</t>
-  </si>
-  <si>
-    <t>UM005</t>
-  </si>
-  <si>
-    <t>登録を完了した受講者もしくは講師がログインできる</t>
-  </si>
-  <si>
-    <t>ログアウト</t>
-  </si>
-  <si>
-    <t>UM006</t>
-  </si>
-  <si>
-    <t>登録を完了した受講者もしくは講師がログアウトできる</t>
-  </si>
-  <si>
-    <t>JAVA</t>
-  </si>
-  <si>
-    <t>受講者管理</t>
-  </si>
-  <si>
-    <t>UM007</t>
-  </si>
-  <si>
-    <t>講師が受講者のプロフィール情報と理解度を取得し表示する</t>
-  </si>
-  <si>
-    <t>JAVA・SQL・</t>
-  </si>
-  <si>
-    <t>プロフィール機能</t>
-  </si>
-  <si>
     <t>PR001</t>
   </si>
   <si>
-    <t>受講者のプロフィールを登録する</t>
-  </si>
-  <si>
-    <t>PR002</t>
-  </si>
-  <si>
     <t>受講者のプロフィール内容を更新する</t>
   </si>
   <si>
-    <t>PR003</t>
-  </si>
-  <si>
-    <t>受講者のプロフィール内容を削除する</t>
-  </si>
-  <si>
     <t>理解度機能</t>
   </si>
   <si>
@@ -279,7 +285,7 @@
     <t>リアクション機能</t>
   </si>
   <si>
-    <t>リアクションボタン</t>
+    <t>理解度ボタン</t>
   </si>
   <si>
     <t>RE001</t>
@@ -288,31 +294,106 @@
     <t>受講者の講義中の理解度をボタンを押した回数によって表す</t>
   </si>
   <si>
-    <t>リアクションボタンの種類</t>
+    <t>JAVA・ｊavascript</t>
+  </si>
+  <si>
+    <t>反応ボタン</t>
   </si>
   <si>
     <t>RE002</t>
   </si>
   <si>
-    <t>使えるリアクションボタンがアプリの使用率によって増える</t>
+    <t>反応ボタンの追加</t>
+  </si>
+  <si>
+    <t>RE003</t>
+  </si>
+  <si>
+    <t>使える反応ボタンがアプリの使用率によって増える</t>
+  </si>
+  <si>
+    <t>現在時間取得</t>
+  </si>
+  <si>
+    <t>RE004</t>
+  </si>
+  <si>
+    <t>受講者がリアクションボタンを押した日時を取得する</t>
   </si>
   <si>
     <t>計測</t>
   </si>
   <si>
-    <t>RE003</t>
-  </si>
-  <si>
     <t>受講者がリアクションボタンを押した回数を計測する</t>
   </si>
   <si>
+    <t>jQuery</t>
+  </si>
+  <si>
+    <t>集計結果表示</t>
+  </si>
+  <si>
+    <t>RE005</t>
+  </si>
+  <si>
+    <t>計測した回数を講師の画面に表示する</t>
+  </si>
+  <si>
+    <t>音声ファイル再生</t>
+  </si>
+  <si>
+    <t>RE006</t>
+  </si>
+  <si>
+    <t>受講者が押したリアクションボタンに対応する音声が流れる</t>
+  </si>
+  <si>
+    <t>JAVA・javascript</t>
+  </si>
+  <si>
     <t>警告</t>
   </si>
   <si>
-    <t>RE004</t>
+    <t>RE007</t>
   </si>
   <si>
     <t>受講者が一定期間リアクションボタンを押さなかった場合、受講者に警告がいくと共に、講師に報告がいく</t>
+  </si>
+  <si>
+    <t>全体機能</t>
+  </si>
+  <si>
+    <t>共通機能</t>
+  </si>
+  <si>
+    <t>フェードページ切り替え</t>
+  </si>
+  <si>
+    <t>AL001</t>
+  </si>
+  <si>
+    <t>ページの切り替え時にフェードする</t>
+  </si>
+  <si>
+    <t>フォーム入力チェック</t>
+  </si>
+  <si>
+    <t>AL002</t>
+  </si>
+  <si>
+    <t>フォームの入力を確認してリアルタイムでエラーを表示する</t>
+  </si>
+  <si>
+    <t>お問い合わせ？</t>
+  </si>
+  <si>
+    <t>AL003</t>
+  </si>
+  <si>
+    <t>javascript・jQuery</t>
+  </si>
+  <si>
+    <t>AL004</t>
   </si>
 </sst>
 </file>
@@ -416,7 +497,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -460,6 +541,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -800,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K22"/>
+  <dimension ref="B2:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -816,7 +900,7 @@
     <col min="6" max="6" width="19.5" customWidth="1"/>
     <col min="7" max="7" width="12.875" customWidth="1"/>
     <col min="8" max="8" width="33.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
@@ -897,7 +981,7 @@
       </c>
       <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="2:11" ht="27">
+    <row r="8" spans="2:11" ht="14.25">
       <c r="B8" s="2">
         <v>1</v>
       </c>
@@ -907,22 +991,24 @@
       <c r="D8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="F8" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K8" s="8"/>
     </row>
-    <row r="9" spans="2:11" ht="15.75">
+    <row r="9" spans="2:11" ht="14.25">
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -932,24 +1018,24 @@
       <c r="D9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="F9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11">
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="2:11" ht="27">
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -959,7 +1045,9 @@
       <c r="D10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="F10" s="10" t="s">
         <v>28</v>
       </c>
@@ -970,10 +1058,11 @@
         <v>30</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11">
+        <v>24</v>
+      </c>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="2:11" ht="14.25">
       <c r="B11" s="2">
         <v>4</v>
       </c>
@@ -983,19 +1072,22 @@
       <c r="D11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="F11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="H11" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="11" t="s">
-        <v>33</v>
-      </c>
       <c r="I11" s="10" t="s">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="K11" s="8"/>
     </row>
     <row r="12" spans="2:11" ht="27">
       <c r="B12" s="2">
@@ -1007,18 +1099,23 @@
       <c r="D12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="F12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="H12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="I12" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="10" t="s">
-        <v>23</v>
+      <c r="K12" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="27">
@@ -1031,9 +1128,11 @@
       <c r="D13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="F13" s="10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>38</v>
@@ -1042,7 +1141,7 @@
         <v>39</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="27">
@@ -1055,18 +1154,20 @@
       <c r="D14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="F14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="H14" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="I14" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="15" spans="2:11">
@@ -1077,20 +1178,22 @@
         <v>18</v>
       </c>
       <c r="D15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="10" t="s">
+      <c r="H15" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="H15" s="11" t="s">
-        <v>47</v>
-      </c>
       <c r="I15" s="10" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="2:11">
@@ -1101,11 +1204,13 @@
         <v>18</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="F16" s="10" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>48</v>
@@ -1114,7 +1219,7 @@
         <v>49</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="2:9">
@@ -1125,20 +1230,22 @@
         <v>18</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="F17" s="10" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="27">
@@ -1149,20 +1256,22 @@
         <v>18</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="F18" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="27">
@@ -1173,20 +1282,22 @@
         <v>18</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="F19" s="10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="27">
@@ -1197,20 +1308,22 @@
         <v>18</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="F20" s="10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G20" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="I20" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="27">
@@ -1221,23 +1334,25 @@
         <v>18</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="F21" s="10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="40.5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="27">
       <c r="B22" s="2">
         <v>15</v>
       </c>
@@ -1245,21 +1360,228 @@
         <v>18</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="F22" s="10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>40</v>
-      </c>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="27">
+      <c r="B23" s="2">
+        <v>16</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="27">
+      <c r="B24" s="2">
+        <v>17</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="27">
+      <c r="B25" s="2">
+        <v>18</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="40.5">
+      <c r="B26" s="2">
+        <v>19</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="2">
+        <v>20</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="27">
+      <c r="B28" s="2">
+        <v>21</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="2">
+        <v>22</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H29" s="11"/>
+      <c r="I29" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="2">
+        <v>23</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H30" s="11"/>
+      <c r="I30" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="F32" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1300,6 +1622,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010078A33019B4A50349AA99FBFDC1855F24" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="3c3e24f762e659f3ec66fcc8c241ba6b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1e0d7ce3-bb55-45eb-a9a0-feb1f740f2fc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3f5a9ca472da46b8c2dbe27b8b39025f" ns3:_="">
     <xsd:import namespace="1e0d7ce3-bb55-45eb-a9a0-feb1f740f2fc"/>
@@ -1431,29 +1768,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CD9837A-977D-4440-B0F2-2789C3E6942D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C25AF63-44FB-4769-9096-80A9865919B7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C25AF63-44FB-4769-9096-80A9865919B7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B179F1B-1CF0-4B17-AE8D-C06178518294}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B179F1B-1CF0-4B17-AE8D-C06178518294}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CD9837A-977D-4440-B0F2-2789C3E6942D}"/>
 </file>
--- a/documents/02外部設計/01機能一覧_ユーザーライク.xlsx
+++ b/documents/02外部設計/01機能一覧_ユーザーライク.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seplus2016-my.sharepoint.com/personal/dohi_seplus2016_onmicrosoft_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="153" documentId="8_{DBA40E2F-9CC7-484C-97D1-B6452D16C5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EDDD3B5-4DF9-45A9-BF09-C02A9F2048D4}"/>
+  <xr:revisionPtr revIDLastSave="160" documentId="8_{DBA40E2F-9CC7-484C-97D1-B6452D16C5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF62C4D2-A175-4225-B5A2-C5E5C2124925}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="98">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -79,6 +79,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>加藤嶺雄</t>
+  </si>
+  <si>
     <t>更新日</t>
     <rPh sb="0" eb="3">
       <t>コウシンビ</t>
@@ -384,16 +387,22 @@
     <t>フォームの入力を確認してリアルタイムでエラーを表示する</t>
   </si>
   <si>
+    <t>トップに戻るボタン</t>
+  </si>
+  <si>
+    <t>AL003</t>
+  </si>
+  <si>
+    <t>ページのトップに戻る</t>
+  </si>
+  <si>
     <t>お問い合わせ？</t>
   </si>
   <si>
-    <t>AL003</t>
+    <t>AL004</t>
   </si>
   <si>
     <t>javascript・jQuery</t>
-  </si>
-  <si>
-    <t>AL004</t>
   </si>
 </sst>
 </file>
@@ -534,6 +543,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -541,9 +553,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -886,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -913,10 +922,10 @@
       <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="13"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="3" spans="2:11">
       <c r="E3" s="3" t="s">
@@ -928,56 +937,60 @@
       <c r="G3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="15">
         <v>44350</v>
       </c>
-      <c r="I3" s="13"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" spans="2:11">
       <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
+      <c r="H4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="14"/>
     </row>
     <row r="5" spans="2:11" ht="14.25">
       <c r="G5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
+        <v>9</v>
+      </c>
+      <c r="H5" s="15">
+        <v>44351</v>
+      </c>
+      <c r="I5" s="14"/>
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="2:11" ht="21">
       <c r="B6" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K6" s="8"/>
     </row>
     <row r="7" spans="2:11" ht="14.25">
       <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K7" s="8"/>
     </row>
@@ -986,25 +999,25 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K8" s="8"/>
     </row>
@@ -1013,25 +1026,25 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>24</v>
       </c>
       <c r="K9" s="8"/>
     </row>
@@ -1040,25 +1053,25 @@
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K10" s="8"/>
     </row>
@@ -1067,25 +1080,25 @@
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>24</v>
       </c>
       <c r="K11" s="8"/>
     </row>
@@ -1094,28 +1107,28 @@
         <v>5</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="27">
@@ -1123,25 +1136,25 @@
         <v>6</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="27">
@@ -1149,25 +1162,25 @@
         <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="2:11">
@@ -1175,25 +1188,25 @@
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="16" spans="2:11">
@@ -1201,25 +1214,25 @@
         <v>9</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="17" spans="2:9">
@@ -1227,25 +1240,25 @@
         <v>10</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="27">
@@ -1253,25 +1266,25 @@
         <v>11</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="27">
@@ -1279,25 +1292,25 @@
         <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="27">
@@ -1305,25 +1318,25 @@
         <v>13</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F20" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I20" s="10" t="s">
         <v>62</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="27">
@@ -1331,25 +1344,25 @@
         <v>14</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="27">
@@ -1357,25 +1370,25 @@
         <v>15</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="27">
@@ -1383,25 +1396,25 @@
         <v>16</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="27">
@@ -1409,25 +1422,25 @@
         <v>17</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F24" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I24" s="10" t="s">
         <v>73</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="27">
@@ -1435,25 +1448,25 @@
         <v>18</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="40.5">
@@ -1461,25 +1474,25 @@
         <v>19</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="2:9">
@@ -1487,25 +1500,25 @@
         <v>20</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="27">
@@ -1513,25 +1526,25 @@
         <v>21</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="2:9">
@@ -1539,23 +1552,25 @@
         <v>22</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>91</v>
+        <v>85</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="H29" s="11"/>
+        <v>93</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>94</v>
+      </c>
       <c r="I29" s="10" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="2:9">
@@ -1563,25 +1578,27 @@
         <v>23</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F30" s="10"/>
+        <v>85</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>95</v>
+      </c>
       <c r="G30" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="10" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="2:9">
-      <c r="F32" s="15"/>
+      <c r="F32" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1622,21 +1639,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010078A33019B4A50349AA99FBFDC1855F24" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="3c3e24f762e659f3ec66fcc8c241ba6b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1e0d7ce3-bb55-45eb-a9a0-feb1f740f2fc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3f5a9ca472da46b8c2dbe27b8b39025f" ns3:_="">
     <xsd:import namespace="1e0d7ce3-bb55-45eb-a9a0-feb1f740f2fc"/>
@@ -1768,8 +1770,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C25AF63-44FB-4769-9096-80A9865919B7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CD9837A-977D-4440-B0F2-2789C3E6942D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1777,5 +1794,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CD9837A-977D-4440-B0F2-2789C3E6942D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C25AF63-44FB-4769-9096-80A9865919B7}"/>
 </file>
--- a/documents/02外部設計/01機能一覧_ユーザーライク.xlsx
+++ b/documents/02外部設計/01機能一覧_ユーザーライク.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seplus2016-my.sharepoint.com/personal/dohi_seplus2016_onmicrosoft_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-2\documents\02外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="160" documentId="8_{DBA40E2F-9CC7-484C-97D1-B6452D16C5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF62C4D2-A175-4225-B5A2-C5E5C2124925}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F11DD74-22A7-421A-BED5-BCC4FA94910E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30600" yWindow="435" windowWidth="26220" windowHeight="14490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="99">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -403,13 +402,26 @@
   </si>
   <si>
     <t>javascript・jQuery</t>
+  </si>
+  <si>
+    <t>エラー画面に関しても言及して。</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ゲンキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -438,16 +450,28 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="MS Gothic"/>
-      <charset val="1"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -543,9 +567,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -554,6 +575,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -573,7 +597,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -895,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -922,10 +946,10 @@
       <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="14"/>
+      <c r="I2" s="13"/>
     </row>
     <row r="3" spans="2:11">
       <c r="E3" s="3" t="s">
@@ -937,28 +961,28 @@
       <c r="G3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="14">
         <v>44350</v>
       </c>
-      <c r="I3" s="14"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="2:11">
       <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="14"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" spans="2:11" ht="14.25">
       <c r="G5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="14">
         <v>44351</v>
       </c>
-      <c r="I5" s="14"/>
+      <c r="I5" s="13"/>
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="2:11" ht="21">
@@ -1048,7 +1072,7 @@
       </c>
       <c r="K9" s="8"/>
     </row>
-    <row r="10" spans="2:11" ht="27">
+    <row r="10" spans="2:11" ht="14.25">
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -1102,7 +1126,7 @@
       </c>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" spans="2:11" ht="27">
+    <row r="12" spans="2:11" ht="15.75">
       <c r="B12" s="2">
         <v>5</v>
       </c>
@@ -1131,7 +1155,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="27">
+    <row r="13" spans="2:11">
       <c r="B13" s="2">
         <v>6</v>
       </c>
@@ -1417,7 +1441,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="27">
+    <row r="24" spans="2:9">
       <c r="B24" s="2">
         <v>17</v>
       </c>
@@ -1598,17 +1622,25 @@
       </c>
     </row>
     <row r="32" spans="2:9">
-      <c r="F32" s="12"/>
+      <c r="B32" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B32:F32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1639,6 +1671,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010078A33019B4A50349AA99FBFDC1855F24" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="3c3e24f762e659f3ec66fcc8c241ba6b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1e0d7ce3-bb55-45eb-a9a0-feb1f740f2fc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3f5a9ca472da46b8c2dbe27b8b39025f" ns3:_="">
     <xsd:import namespace="1e0d7ce3-bb55-45eb-a9a0-feb1f740f2fc"/>
@@ -1770,29 +1817,37 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CD9837A-977D-4440-B0F2-2789C3E6942D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C25AF63-44FB-4769-9096-80A9865919B7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B179F1B-1CF0-4B17-AE8D-C06178518294}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B179F1B-1CF0-4B17-AE8D-C06178518294}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C25AF63-44FB-4769-9096-80A9865919B7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CD9837A-977D-4440-B0F2-2789C3E6942D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1e0d7ce3-bb55-45eb-a9a0-feb1f740f2fc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documents/02外部設計/01機能一覧_ユーザーライク.xlsx
+++ b/documents/02外部設計/01機能一覧_ユーザーライク.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-2\documents\02外部設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seplus2016-my.sharepoint.com/personal/kato-re_seplus2016_onmicrosoft_com/Documents/E-2ドキュメント/02外部設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F11DD74-22A7-421A-BED5-BCC4FA94910E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="185" documentId="8_{DBA40E2F-9CC7-484C-97D1-B6452D16C5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9436BF31-94F0-4A8A-8B61-FD91D908295C}"/>
   <bookViews>
-    <workbookView xWindow="30600" yWindow="435" windowWidth="26220" windowHeight="14490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="345" yWindow="870" windowWidth="12960" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="98">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -403,25 +404,12 @@
   <si>
     <t>javascript・jQuery</t>
   </si>
-  <si>
-    <t>エラー画面に関しても言及して。</t>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ゲンキュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -438,15 +426,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -456,25 +435,37 @@
     <font>
       <sz val="12"/>
       <name val="MS Gothic"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <charset val="1"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -483,12 +474,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -524,60 +521,341 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -917,10 +1195,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K32"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:F32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -936,711 +1214,778 @@
     <col min="9" max="9" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11">
-      <c r="E2" s="3" t="s">
+    <row r="1" spans="1:11" ht="19.5" thickBot="1">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:11" ht="19.5" thickTop="1">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="13"/>
-    </row>
-    <row r="3" spans="2:11">
-      <c r="E3" s="3" t="s">
+      <c r="I2" s="34"/>
+    </row>
+    <row r="3" spans="1:11" ht="19.5" thickBot="1">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="20">
         <v>44350</v>
       </c>
-      <c r="I3" s="13"/>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="G4" s="3" t="s">
+      <c r="I3" s="32"/>
+    </row>
+    <row r="4" spans="1:11" ht="19.5" thickTop="1">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="13"/>
-    </row>
-    <row r="5" spans="2:11" ht="14.25">
-      <c r="G5" s="3" t="s">
+      <c r="I4" s="30"/>
+      <c r="J4" s="31"/>
+    </row>
+    <row r="5" spans="1:11" ht="19.5" thickBot="1">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="28">
         <v>44351</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="K5" s="8"/>
-    </row>
-    <row r="6" spans="2:11" ht="21">
-      <c r="B6" s="5" t="s">
+      <c r="I5" s="29"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" ht="30" thickTop="1" thickBot="1">
+      <c r="A6" s="5"/>
+      <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="8"/>
-    </row>
-    <row r="7" spans="2:11" ht="14.25">
-      <c r="B7" s="3" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="5"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" ht="18.75">
+      <c r="A7" s="5"/>
+      <c r="B7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="8"/>
-    </row>
-    <row r="8" spans="2:11" ht="14.25">
-      <c r="B8" s="2">
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" ht="18.75">
+      <c r="A8" s="5"/>
+      <c r="B8" s="11">
         <v>1</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="10" t="s">
+      <c r="C8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="8"/>
-    </row>
-    <row r="9" spans="2:11" ht="14.25">
-      <c r="B9" s="2">
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" ht="18.75">
+      <c r="A9" s="5"/>
+      <c r="B9" s="8">
         <v>2</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="10" t="s">
+      <c r="C9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="8"/>
-    </row>
-    <row r="10" spans="2:11" ht="14.25">
-      <c r="B10" s="2">
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" ht="37.5">
+      <c r="A10" s="5"/>
+      <c r="B10" s="8">
         <v>3</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="10" t="s">
+      <c r="C10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="8"/>
-    </row>
-    <row r="11" spans="2:11" ht="14.25">
-      <c r="B11" s="2">
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" ht="18.75">
+      <c r="A11" s="5"/>
+      <c r="B11" s="8">
         <v>4</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="C11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="8"/>
-    </row>
-    <row r="12" spans="2:11" ht="15.75">
-      <c r="B12" s="2">
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" ht="37.5">
+      <c r="A12" s="5"/>
+      <c r="B12" s="8">
         <v>5</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="10" t="s">
+      <c r="C12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K12" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="2:11">
-      <c r="B13" s="2">
+    <row r="13" spans="1:11" ht="37.5">
+      <c r="A13" s="5"/>
+      <c r="B13" s="8">
         <v>6</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="10" t="s">
+      <c r="C13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="27">
-      <c r="B14" s="2">
+    <row r="14" spans="1:11" ht="37.5">
+      <c r="A14" s="5"/>
+      <c r="B14" s="8">
         <v>7</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="10" t="s">
+      <c r="C14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="2:11">
-      <c r="B15" s="2">
+    <row r="15" spans="1:11" ht="18.75">
+      <c r="A15" s="5"/>
+      <c r="B15" s="8">
         <v>8</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="10" t="s">
+      <c r="C15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="2:11">
-      <c r="B16" s="2">
+    <row r="16" spans="1:11" ht="18.75">
+      <c r="A16" s="5"/>
+      <c r="B16" s="8">
         <v>9</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="10" t="s">
+      <c r="C16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="2">
+    <row r="17" spans="1:9" ht="18.75">
+      <c r="A17" s="5"/>
+      <c r="B17" s="8">
         <v>10</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="10" t="s">
+      <c r="C17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="I17" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="27">
-      <c r="B18" s="2">
+    <row r="18" spans="1:9" ht="37.5">
+      <c r="A18" s="5"/>
+      <c r="B18" s="8">
         <v>11</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="10" t="s">
+      <c r="C18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="I18" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="27">
-      <c r="B19" s="2">
+    <row r="19" spans="1:9" ht="37.5">
+      <c r="A19" s="5"/>
+      <c r="B19" s="8">
         <v>12</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="10" t="s">
+      <c r="C19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="H19" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I19" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="27">
-      <c r="B20" s="2">
+    <row r="20" spans="1:9" ht="37.5">
+      <c r="A20" s="5"/>
+      <c r="B20" s="8">
         <v>13</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="10" t="s">
+      <c r="C20" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I20" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="27">
-      <c r="B21" s="2">
+    <row r="21" spans="1:9" ht="37.5">
+      <c r="A21" s="5"/>
+      <c r="B21" s="8">
         <v>14</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="10" t="s">
+      <c r="C21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="H21" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="I21" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="27">
-      <c r="B22" s="2">
+    <row r="22" spans="1:9" ht="37.5">
+      <c r="A22" s="5"/>
+      <c r="B22" s="8">
         <v>15</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="10" t="s">
+      <c r="C22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="H22" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="I22" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="27">
-      <c r="B23" s="2">
+    <row r="23" spans="1:9" ht="37.5">
+      <c r="A23" s="5"/>
+      <c r="B23" s="8">
         <v>16</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="10" t="s">
+      <c r="C23" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="H23" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="I23" s="10" t="s">
+      <c r="I23" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="2:9">
-      <c r="B24" s="2">
+    <row r="24" spans="1:9" ht="18.75">
+      <c r="A24" s="5"/>
+      <c r="B24" s="8">
         <v>17</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="10" t="s">
+      <c r="C24" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="H24" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="I24" s="10" t="s">
+      <c r="I24" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="27">
-      <c r="B25" s="2">
+    <row r="25" spans="1:9" ht="37.5">
+      <c r="A25" s="5"/>
+      <c r="B25" s="8">
         <v>18</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="10" t="s">
+      <c r="C25" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="H25" s="11" t="s">
+      <c r="H25" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="I25" s="10" t="s">
+      <c r="I25" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="40.5">
-      <c r="B26" s="2">
-        <v>19</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="10" t="s">
+    <row r="26" spans="1:9" ht="56.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="8">
+        <v>19</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="H26" s="11" t="s">
+      <c r="H26" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="I26" s="10" t="s">
+      <c r="I26" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="2:9">
-      <c r="B27" s="2">
+    <row r="27" spans="1:9" ht="18.75">
+      <c r="A27" s="5"/>
+      <c r="B27" s="8">
         <v>20</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="10" t="s">
+      <c r="C27" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G27" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="H27" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="I27" s="10" t="s">
+      <c r="I27" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="27">
-      <c r="B28" s="2">
+    <row r="28" spans="1:9" ht="37.5">
+      <c r="A28" s="5"/>
+      <c r="B28" s="8">
         <v>21</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="10" t="s">
+      <c r="C28" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G28" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="H28" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="I28" s="10" t="s">
+      <c r="I28" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="2:9">
-      <c r="B29" s="2">
+    <row r="29" spans="1:9" ht="18.75">
+      <c r="A29" s="5"/>
+      <c r="B29" s="8">
         <v>22</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="10" t="s">
+      <c r="C29" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F29" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="G29" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="H29" s="11" t="s">
+      <c r="H29" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="I29" s="10" t="s">
+      <c r="I29" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="2:9">
-      <c r="B30" s="2">
+    <row r="30" spans="1:9" ht="18.75">
+      <c r="A30" s="5"/>
+      <c r="B30" s="8">
         <v>23</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="10" t="s">
+      <c r="C30" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G30" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="10" t="s">
+      <c r="H30" s="10"/>
+      <c r="I30" s="9" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="2:9">
-      <c r="B32" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
+    <row r="31" spans="1:9" ht="18.75">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="F32" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B32:F32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1671,21 +2016,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010078A33019B4A50349AA99FBFDC1855F24" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="3c3e24f762e659f3ec66fcc8c241ba6b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1e0d7ce3-bb55-45eb-a9a0-feb1f740f2fc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3f5a9ca472da46b8c2dbe27b8b39025f" ns3:_="">
     <xsd:import namespace="1e0d7ce3-bb55-45eb-a9a0-feb1f740f2fc"/>
@@ -1817,24 +2153,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C25AF63-44FB-4769-9096-80A9865919B7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B179F1B-1CF0-4B17-AE8D-C06178518294}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1e0d7ce3-bb55-45eb-a9a0-feb1f740f2fc"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B179F1B-1CF0-4B17-AE8D-C06178518294}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CD9837A-977D-4440-B0F2-2789C3E6942D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1850,4 +2194,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C25AF63-44FB-4769-9096-80A9865919B7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documents/02外部設計/01機能一覧_ユーザーライク.xlsx
+++ b/documents/02外部設計/01機能一覧_ユーザーライク.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24202"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seplus2016-my.sharepoint.com/personal/kato-re_seplus2016_onmicrosoft_com/Documents/E-2ドキュメント/02外部設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="185" documentId="8_{DBA40E2F-9CC7-484C-97D1-B6452D16C5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9436BF31-94F0-4A8A-8B61-FD91D908295C}"/>
+  <xr:revisionPtr revIDLastSave="199" documentId="8_{DBA40E2F-9CC7-484C-97D1-B6452D16C5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D6B39A4-1C8C-4C1D-8A5A-6428464000BF}"/>
   <bookViews>
     <workbookView minimized="1" xWindow="345" yWindow="870" windowWidth="12960" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -803,58 +803,58 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -875,7 +875,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1198,20 +1198,20 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G5"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.25" customWidth="1"/>
-    <col min="2" max="2" width="6.75" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="19.5" customWidth="1"/>
-    <col min="7" max="7" width="12.875" customWidth="1"/>
-    <col min="8" max="8" width="33.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.75" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="33.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1">
@@ -1229,36 +1229,36 @@
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="22" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="34"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" spans="1:11" ht="19.5" thickBot="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="31">
         <v>44350</v>
       </c>
       <c r="I3" s="32"/>
@@ -1268,16 +1268,16 @@
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="25"/>
+      <c r="E4" s="23"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="30"/>
-      <c r="J4" s="31"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="26"/>
     </row>
     <row r="5" spans="1:11" ht="19.5" thickBot="1">
       <c r="A5" s="5"/>
@@ -1286,13 +1286,13 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="35">
         <v>44351</v>
       </c>
-      <c r="I5" s="29"/>
+      <c r="I5" s="36"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="30" thickTop="1" thickBot="1">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="18.75">
+    <row r="11" spans="1:11" ht="34.5" customHeight="1">
       <c r="A11" s="5"/>
       <c r="B11" s="8">
         <v>4</v>
@@ -1533,7 +1533,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="18.75">
+    <row r="15" spans="1:11" ht="37.5" customHeight="1">
       <c r="A15" s="5"/>
       <c r="B15" s="8">
         <v>8</v>
@@ -1560,7 +1560,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="18.75">
+    <row r="16" spans="1:11" ht="29.25" customHeight="1">
       <c r="A16" s="5"/>
       <c r="B16" s="8">
         <v>9</v>
@@ -1587,7 +1587,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="18.75">
+    <row r="17" spans="1:9" ht="48" customHeight="1">
       <c r="A17" s="5"/>
       <c r="B17" s="8">
         <v>10</v>
@@ -1776,7 +1776,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="18.75">
+    <row r="24" spans="1:9" ht="39.75" customHeight="1">
       <c r="A24" s="5"/>
       <c r="B24" s="8">
         <v>17</v>
@@ -1830,7 +1830,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="56.25">
+    <row r="26" spans="1:9" ht="72.75" customHeight="1">
       <c r="A26" s="5"/>
       <c r="B26" s="8">
         <v>19</v>
@@ -1857,7 +1857,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="18.75">
+    <row r="27" spans="1:9" ht="41.25" customHeight="1">
       <c r="A27" s="5"/>
       <c r="B27" s="8">
         <v>20</v>
@@ -2163,43 +2163,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B179F1B-1CF0-4B17-AE8D-C06178518294}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1e0d7ce3-bb55-45eb-a9a0-feb1f740f2fc"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B179F1B-1CF0-4B17-AE8D-C06178518294}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CD9837A-977D-4440-B0F2-2789C3E6942D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1e0d7ce3-bb55-45eb-a9a0-feb1f740f2fc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CD9837A-977D-4440-B0F2-2789C3E6942D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C25AF63-44FB-4769-9096-80A9865919B7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C25AF63-44FB-4769-9096-80A9865919B7}"/>
 </file>
--- a/documents/02外部設計/01機能一覧_ユーザーライク.xlsx
+++ b/documents/02外部設計/01機能一覧_ユーザーライク.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24202"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24206"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -1197,8 +1197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2016,9 +2016,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2154,16 +2157,13 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B179F1B-1CF0-4B17-AE8D-C06178518294}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C25AF63-44FB-4769-9096-80A9865919B7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2171,5 +2171,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C25AF63-44FB-4769-9096-80A9865919B7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B179F1B-1CF0-4B17-AE8D-C06178518294}"/>
 </file>